--- a/mantis-download/650V3R1M3-mantis.xlsx
+++ b/mantis-download/650V3R1M3-mantis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\temp_py\mantis-download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3220BBC3-3B8C-436A-983B-1A1590B2666A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B4AE5CA-4827-4E6D-B26A-67AF79DABB9C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3720" xr2:uid="{9216AB79-A722-4962-B674-BDACEB82D8CE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="94">
   <si>
     <t>编号</t>
   </si>
@@ -54,9 +54,6 @@
     <t>分派给</t>
   </si>
   <si>
-    <t>尹长江</t>
-  </si>
-  <si>
     <t>严重错误</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>致命错误</t>
   </si>
   <si>
-    <t>潘斌</t>
-  </si>
-  <si>
     <t>【问题环境】650 V3R1 M3二期;【SVN版本】CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_12101645.squ,CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_12101645.squ;【问题领域】设备问题;【问题描述】U3设备升级起来，主盘状态down，业务盘init</t>
   </si>
   <si>
@@ -108,51 +102,24 @@
     <t>遗留有计划解决</t>
   </si>
   <si>
-    <t>张超</t>
-  </si>
-  <si>
     <t>待中试验证</t>
   </si>
   <si>
-    <t>黄凡2017</t>
-  </si>
-  <si>
     <t>【问题环境】650 V3R1M3测试平台;【SVN版本】ftp://10.190.17.146/ver_650_v3r1_m3_2/180921_1806/CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_09211806;【问题领域】设备问题;【问题描述】U5测试VPLS业务实例数（最大400条）下载完成后，有部分业务不通</t>
   </si>
   <si>
     <t>李顺喜</t>
   </si>
   <si>
-    <t>【问题环境】2端U5，4端U3，2端U2;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_05300815CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_05300815;【问题领域】网管问题;【问题描述】重启服务后，网管出现告警灯未刷新的问题</t>
-  </si>
-  <si>
     <t>董浩</t>
   </si>
   <si>
     <t>潘婷</t>
   </si>
   <si>
-    <t>已中试验证</t>
-  </si>
-  <si>
-    <t>谢曌</t>
-  </si>
-  <si>
-    <t>吴金源</t>
-  </si>
-  <si>
     <t>潘飞</t>
   </si>
   <si>
-    <t>黄张新</t>
-  </si>
-  <si>
-    <t>【问题环境】650 集成测试;【SVN版本】650_U2U3_VR3.1.3_FOSV3_TRUNK_12132147.squ;【问题领域】设备问题;【问题描述】2U设备升级过程中，概率出现主控进程异常挂死</t>
-  </si>
-  <si>
-    <t>曹荔</t>
-  </si>
-  <si>
     <t>张琪</t>
   </si>
   <si>
@@ -168,21 +135,9 @@
     <t>【问题环境】PRO框主控RCU6A主备切换后业务不通;【SVN版本】ftp://10.190.17.146/ver_650_v3r1_m3_2/181110_1318/ ;【问题领域】设备问题;【问题描述】PRO框主控RCU6A主备切换后业务不通</t>
   </si>
   <si>
-    <t>【问题环境】650 V3R1M3 二期测试环境;【SVN版本】ftp://10.190.17.146/ver_650_v3r1_m3_2/181011_1517/;【问题领域】设备问题;【问题描述】U5升级过程中，主控上有ROS的core文件</t>
-  </si>
-  <si>
-    <t>彭正非</t>
-  </si>
-  <si>
-    <t>【问题环境】650测试环境;【SVN版本】ftp://10.190.17.146/ver_650_v3r1_m3_2/181129_1007/ CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_11291007.squ，CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_11291007.squ;【问题领域】网管问题;【问题描述】网元MAC地址查询，复选多条VPLS业务，查询结果只显示其中一条学习到的MAC地址。</t>
-  </si>
-  <si>
     <t>夏梦</t>
   </si>
   <si>
-    <t>【问题环境】PRO框不上报温度越限告警、电压过高和电压过低告警;【SVN版本】ftp://10.190.17.146/ver_650_v3r1_m3_2/181128_1116/;【问题领域】设备问题;【问题描述】PRO框不上报温度越限告警、电压过高和电压过低告警</t>
-  </si>
-  <si>
     <t>【问题环境】650 V3R1M3;【SVN版本】ftp://10.190.17.146/ver_650_v3r1_m3_2/180921_1806/CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_09211806;【问题领域】设备问题;【问题描述】U5设备掉管，邻居丢失</t>
   </si>
   <si>
@@ -192,21 +147,9 @@
     <t>待定位</t>
   </si>
   <si>
-    <t>【问题环境】650 集成测试;【SVN版本】CiTRANS_650_PRO_VR3.1.3_FOSV3_TRUNK_11171602.squ CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_11171602.squ;【问题领域】设备问题;【问题描述】下话框低阶告警性能都没有上报。</t>
-  </si>
-  <si>
-    <t>张剑</t>
-  </si>
-  <si>
-    <t>【问题环境】650V3R1M3;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_11101318.squCiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_11101318.squ;【问题领域】软件;【问题描述】MSV1业务盘物理口和逻辑接口查不到秒级流量</t>
-  </si>
-  <si>
     <t>【问题环境】650 V3R1 M3二期;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_11101318.squ;CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_11101318.squ;【问题领域】网管问题;【问题描述】网管界面上显示的告警数和查询到的告警数不一致</t>
   </si>
   <si>
-    <t>【问题环境】650V3R1M3 第二期第三轮;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_08211030.squCiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_08211030.squ;;【问题领域】网管;【问题描述】网管上多下了一条命令</t>
-  </si>
-  <si>
     <t>【问题环境】650 V3R1M3测试环境;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_06120815.squ； CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_06120815.squ;【问题领域】设备问题;【问题描述】650设备与660ces业务对通时，仪表闪误码</t>
   </si>
   <si>
@@ -252,12 +195,6 @@
     <t>【问题环境】C650集成测试2U&amp;3U&amp;5U;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_06120815.squ;【问题领域】软件问题;【问题描述】MSV1盘子镜像到不同盘的MSV1盘，然后在仪表端抓包会丢一部分包。</t>
   </si>
   <si>
-    <t>田辉</t>
-  </si>
-  <si>
-    <t>【问题环境】650V3R1M3集成测试;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_06120815.squ;【问题领域】网管问题;【问题描述】用网管主备切，隔几分钟后，用控制命令下关断激光器的命令，返回rpc调用超时</t>
-  </si>
-  <si>
     <t>【问题环境】1端640、2端U2、2端U3、2端U5设备设备组网测试;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_05151543.squ;【问题领域】设备问题;【问题描述】U2设备整机上电，5槽位XSV1单盘状态wrong</t>
   </si>
   <si>
@@ -279,9 +216,6 @@
     <t>【问题环境】650V3R1M3冻结期第一轮;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_08211030.squ;【问题领域】网管问题;【问题描述】网管自动锁定功能已关闭，但过几分钟还是会锁定</t>
   </si>
   <si>
-    <t>【问题环境】650V3R1M3冻结期第二轮;【SVN版本】ver_650_v3r1_m3_2;【问题领域】网管;【问题描述】用网管查询双纤复用保护详细信息，和设备主控查询的状态不一致。且网管日志显示和设备是一致的。</t>
-  </si>
-  <si>
     <t>【问题环境】650 V3R1 M3二期;【SVN版本】CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_09211806.squ;CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_09211806.squ;【问题领域】设备问题;【问题描述】650U3设备在进行整机包升级的过程中，主控进程重启退出</t>
   </si>
   <si>
@@ -342,7 +276,41 @@
     <t>已处理</t>
   </si>
   <si>
-    <t>已验证未修正</t>
+    <t>【问题环境】650 V3R1 M3集成测试;【SVN版本】CiTRANS_650_PRO_VR3.1.3_FOSV3_TRUNK_12261137.squ;【问题领域】设备问题;【问题描述】主控对业务盘进行下电操作，连续对三块单盘下电会导致机电挂死</t>
+  </si>
+  <si>
+    <t>已集成验证</t>
+  </si>
+  <si>
+    <t>徐昊</t>
+  </si>
+  <si>
+    <t>【问题环境】2端5U,2端3U,2端2U,S1V5盘;【SVN版本】CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_12141733.squ    CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_12141733.squ;【问题领域】设备领域;【问题描述】S1V5盘第8个光口锁定时钟，ssm质量等级上报不正确，如FTP-1仪表S1设置G811,设备上报G812转送时钟， 
+仪表S1设置G812转送时钟,设备上报G812本地时钟时钟，</t>
+  </si>
+  <si>
+    <t>张帆0878</t>
+  </si>
+  <si>
+    <t>【问题环境】2端5U,2端3U,2端2U S1V5至S1V1业务;【SVN版本】CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_12141733.squ    CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_12141733.squ;【问题领域】设备问题;【问题描述】S1V5盘配置3个CEP接口，使用S1V5盘1口，2口，3口；先删除1口配置，导致2,3口基本配置被删除，性能上报无定位源性能</t>
+  </si>
+  <si>
+    <t>胡本昌</t>
+  </si>
+  <si>
+    <t>【问题环境】2端5U设备，2端3U设备，2端2U设备，5U设备至3U设备有CEP业务，配置了1588时间;【SVN版本】CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_12141733.squ    CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_12141733.squ;【问题领域】设备;【问题描述】CEP业务有B3误码</t>
+  </si>
+  <si>
+    <t>【问题环境】650 集成测试;【SVN版本】CiTRANS_650_PRO_VR3.1.3_FOSV3_TRUNK_12261137.squ;【问题领域】设备问题;【问题描述】修改J2值，不上告TIM告警</t>
+  </si>
+  <si>
+    <t>徐志星</t>
+  </si>
+  <si>
+    <t>【问题环境】650 V3R1M3 二期测试环境;【SVN版本】CiTRANS_650_PRO_VR3.1.3_FOSV3_TRUNK_12222133.squ;【问题领域】设备问题;【问题描述】备用主控一直上告LTI告警，实际是不应该上报，也不不能报在主用上。</t>
+  </si>
+  <si>
+    <t>【问题环境】650v3r1m3测试环境;【SVN版本】CiTRANS_650_U5_VR3.1.3_FOSV3_TRUNK_12141733.squ, CiTRANS_650_U2U3_VR3.1.3_FOSV3_TRUNK_12141733.squ;【问题领域】网管问题;【问题描述】当前性能筛选FLOW性能值后异常</t>
   </si>
 </sst>
 </file>
@@ -388,12 +356,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,7 +681,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44BE8C5-574C-4B35-BB60-5274E1DBC716}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G105"/>
@@ -755,178 +726,175 @@
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>167958</v>
+        <v>173547</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>43419</v>
+        <v>43473</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>172271</v>
+        <v>172933</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>43455</v>
-      </c>
-      <c r="E3" t="s">
-        <v>102</v>
+        <v>43462</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>158489</v>
+        <v>172931</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43462</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>173202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43327</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" s="1">
+        <v>43468</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>154942</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>172992</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43463</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>171391</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43299</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D7" s="1">
+        <v>43447</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>157893</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43322</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>166819</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43410</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>168194</v>
+        <v>166773</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>43420</v>
+        <v>43409</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -934,1053 +902,975 @@
         <v>170194</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>43438</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>171391</v>
+        <v>155787</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
-        <v>43447</v>
+        <v>43307</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>165824</v>
+        <v>166819</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>43400</v>
+        <v>43410</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>150049</v>
+        <v>156412</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
-        <v>43250</v>
+        <v>43312</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
         <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>170003</v>
+        <v>156835</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>43437</v>
+        <v>43314</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>170235</v>
+        <v>155451</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
-        <v>43438</v>
+        <v>43304</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>152325</v>
+        <v>156791</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1">
-        <v>43273</v>
+        <v>43314</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>157581</v>
+        <v>154942</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>43320</v>
+        <v>43299</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>171543</v>
+        <v>155086</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1">
-        <v>43448</v>
+        <v>43300</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>166414</v>
+        <v>157893</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>43405</v>
+        <v>43322</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
         <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>170344</v>
+        <v>156723</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>43439</v>
+        <v>43314</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>167831</v>
+        <v>158489</v>
       </c>
       <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43327</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>159531</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43335</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>172349</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43458</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>172271</v>
+      </c>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43418</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>168013</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43419</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>160298</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43340</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>153262</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
       <c r="D23" s="1">
-        <v>43283</v>
+        <v>43455</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s">
         <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>156791</v>
+        <v>172503</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
       <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1">
+        <v>43459</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1">
-        <v>43314</v>
-      </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>155806</v>
+        <v>167958</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" s="1">
-        <v>43307</v>
+        <v>43419</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>155846</v>
+        <v>152325</v>
       </c>
       <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>43273</v>
+      </c>
+      <c r="E26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1">
-        <v>43307</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>155451</v>
+        <v>165824</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1">
-        <v>43304</v>
+        <v>43400</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>155183</v>
+        <v>157581</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>43300</v>
+        <v>43320</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>154898</v>
+        <v>166414</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1">
-        <v>43298</v>
+        <v>43405</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>153392</v>
+        <v>168013</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1">
-        <v>43284</v>
+        <v>43419</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>151594</v>
+        <v>153262</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1">
+        <v>43283</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="1">
-        <v>43266</v>
-      </c>
-      <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" t="s">
-        <v>24</v>
-      </c>
       <c r="G31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>151473</v>
+        <v>155806</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>43265</v>
+        <v>43307</v>
       </c>
       <c r="E32" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>149458</v>
+        <v>155846</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="1">
-        <v>43243</v>
+        <v>43307</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>166773</v>
+        <v>155183</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1">
-        <v>43409</v>
+        <v>43300</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>165134</v>
+        <v>154898</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1">
-        <v>43395</v>
+        <v>43298</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>167628</v>
+        <v>153392</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43284</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="1">
-        <v>43417</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>159531</v>
+        <v>151594</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37" s="1">
-        <v>43335</v>
+        <v>43266</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>149458</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>43243</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>162441</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43363</v>
-      </c>
-      <c r="E38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
       <c r="H38" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
+        <v>165134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1">
+        <v>43395</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>167628</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43417</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>165435</v>
       </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1">
         <v>43397</v>
       </c>
-      <c r="E39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>155787</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="1">
-        <v>43307</v>
-      </c>
-      <c r="E40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>156835</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="1">
-        <v>43314</v>
-      </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>156412</v>
+        <v>162610</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D42" s="1">
-        <v>43312</v>
+        <v>43364</v>
       </c>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>156723</v>
+        <v>162348</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D43" s="1">
-        <v>43314</v>
+        <v>43362</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>155086</v>
+        <v>157855</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>43300</v>
+        <v>43322</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>162610</v>
+        <v>156275</v>
       </c>
       <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
-        <v>22</v>
-      </c>
       <c r="D45" s="1">
-        <v>43364</v>
+        <v>43311</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>162348</v>
+        <v>149129</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1">
-        <v>43362</v>
+        <v>43238</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>157855</v>
+        <v>154748</v>
       </c>
       <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
         <v>14</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="1">
+        <v>43297</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="1">
-        <v>43322</v>
-      </c>
-      <c r="E47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
       <c r="G47" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>156275</v>
-      </c>
-      <c r="B48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="1">
-        <v>43311</v>
-      </c>
-      <c r="E48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F48" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>149129</v>
-      </c>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="1">
-        <v>43238</v>
-      </c>
-      <c r="E49" t="s">
-        <v>99</v>
-      </c>
-      <c r="F49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>154748</v>
-      </c>
-      <c r="B50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="1">
-        <v>43297</v>
-      </c>
-      <c r="E50" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H50" xr:uid="{7116EC89-5575-4E1F-BA95-74E279E0A2D2}">
+  <autoFilter ref="A1:H47" xr:uid="{25AE7CD6-94D0-4BD5-80D6-28F5170F25B7}">
     <filterColumn colId="5">
       <customFilters and="1">
         <customFilter operator="notEqual" val="*集成*"/>
